--- a/r4-core-ballot_2024_stu2/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
+++ b/r4-core-ballot_2024_stu2/StructureDefinition-at-core-ext-address-additionalInformation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T07:44:42+00:00</t>
+    <t>2024-07-17T08:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
